--- a/WorkFiles/URREF_Master_v6.xlsx
+++ b/WorkFiles/URREF_Master_v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc/OneDrive/Documents/ETURWG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc/Documents/Prog/git/urref/WorkFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="B4757F05E54AB86DDA6F36F9A2ECF472D09E3749" xr6:coauthVersionLast="16" xr6:coauthVersionMax="16" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247FCE1B-98A7-7B4A-9200-39B6745D58EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="25820" windowHeight="24300" tabRatio="500" firstSheet="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26660" yWindow="3600" windowWidth="25820" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Information" sheetId="4" r:id="rId10"/>
     <sheet name="TypeOfScale" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -146,7 +146,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -155,12 +155,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Evaluation Criteria that concern aspects of data and their relationship to source, the object being reported upon, and the objectives of the fusion process. </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Evaluation Criteria that concern aspects of data and their relationship to source, the object being reported upon, and the objectives of the fusion process. </t>
         </r>
       </text>
     </comment>
@@ -288,9 +297,6 @@
     <t>Data Handling Criterion</t>
   </si>
   <si>
-    <t>Ability to assess the way data is managed by the fusion system.</t>
-  </si>
-  <si>
     <t>Interpretation</t>
   </si>
   <si>
@@ -379,9 +385,6 @@
   </si>
   <si>
     <t>Adaptability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability of the representational model to allow for different configurations of the model. </t>
   </si>
   <si>
     <t>Compatibility</t>
@@ -665,12 +668,18 @@
   <si>
     <t>Ratio</t>
   </si>
+  <si>
+    <t xml:space="preserve"> It</t>
+  </si>
+  <si>
+    <t>Ability of the representational model to allow for different configurations of the system.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -760,19 +769,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -798,6 +794,19 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1556,7 +1565,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1586,10 +1595,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="119" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="119" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="119" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="119" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -1619,16 +1628,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="119" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="119" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,7 +1673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1">
@@ -1682,7 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="119" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="119" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1694,7 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
@@ -1724,13 +1733,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,16 +1748,16 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,10 +1772,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="92" applyBorder="1" applyAlignment="1">
@@ -1781,92 +1790,104 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="92" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="92" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1874,89 +1895,80 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="92" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="92" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="92" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="92" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="92" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="92" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="92" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1964,8 +1976,11 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="92" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1981,12 +1996,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="120">
@@ -2454,71 +2463,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="14" width="19.125" customWidth="1"/>
-    <col min="15" max="15" width="3.875" customWidth="1"/>
-    <col min="16" max="19" width="19.125" customWidth="1"/>
+    <col min="11" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" customWidth="1"/>
+    <col min="16" max="19" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" customHeight="1" thickTop="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:19" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="86" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="87" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="45"/>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="83"/>
-      <c r="P1" s="81" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="P1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="86"/>
+    </row>
+    <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="45"/>
       <c r="K2" s="35" t="s">
         <v>7</v>
@@ -2545,16 +2554,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="36.950000000000003" customHeight="1">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:19" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="40"/>
@@ -2569,16 +2578,16 @@
       <c r="R3" s="51"/>
       <c r="S3" s="52"/>
     </row>
-    <row r="4" spans="1:19" ht="44.1" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="91" t="s">
+    <row r="4" spans="1:19" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="97"/>
+      <c r="B4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="2"/>
@@ -2593,16 +2602,16 @@
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" spans="1:19" ht="42" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92" t="s">
+    <row r="5" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="97"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="93"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="2"/>
@@ -2617,10 +2626,10 @@
       <c r="R5" s="12"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" ht="60.95" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
+    <row r="6" spans="1:19" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="67" t="s">
         <v>17</v>
       </c>
@@ -2643,10 +2652,10 @@
       <c r="R6" s="12"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" ht="63.95">
-      <c r="A7" s="78"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="67" t="s">
         <v>20</v>
       </c>
@@ -2669,10 +2678,10 @@
       <c r="R7" s="12"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="97"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="67" t="s">
         <v>23</v>
       </c>
@@ -2693,16 +2702,16 @@
       <c r="R8" s="12"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="100" t="s">
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
@@ -2717,10 +2726,10 @@
       <c r="R9" s="12"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" ht="48">
-      <c r="A10" s="78"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="101"/>
+    <row r="10" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="67" t="s">
         <v>27</v>
       </c>
@@ -2743,10 +2752,10 @@
       <c r="R10" s="12"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" ht="80.099999999999994">
-      <c r="A11" s="78"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="101"/>
+    <row r="11" spans="1:19" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="97"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="67" t="s">
         <v>29</v>
       </c>
@@ -2769,10 +2778,10 @@
       <c r="R11" s="12"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" ht="48">
-      <c r="A12" s="78"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="102"/>
+    <row r="12" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="67" t="s">
         <v>31</v>
       </c>
@@ -2795,16 +2804,16 @@
       <c r="R12" s="12"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" ht="50.1" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="91"/>
+    <row r="13" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="97"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="4" t="s">
@@ -2821,16 +2830,16 @@
       <c r="R13" s="12"/>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" ht="33" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="91"/>
+    <row r="14" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="97"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="4" t="s">
@@ -2847,16 +2856,16 @@
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" ht="27" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="77" t="s">
+    <row r="15" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
+      <c r="B15" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
+      <c r="C15" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="3"/>
@@ -2871,20 +2880,20 @@
       <c r="R15" s="12"/>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" ht="98.1" customHeight="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="77"/>
+    <row r="16" spans="1:19" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="46"/>
@@ -2897,20 +2906,20 @@
       <c r="R16" s="12"/>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" ht="66" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="77"/>
+    <row r="17" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="46"/>
@@ -2923,16 +2932,16 @@
       <c r="R17" s="12"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" ht="45" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="77" t="s">
+    <row r="18" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97"/>
+      <c r="B18" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="3"/>
@@ -2947,20 +2956,20 @@
       <c r="R18" s="12"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="29" customFormat="1" ht="48.95" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="77"/>
+    <row r="19" spans="1:19" s="29" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="97"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="47"/>
@@ -2973,20 +2982,20 @@
       <c r="R19" s="27"/>
       <c r="S19" s="28"/>
     </row>
-    <row r="20" spans="1:19" ht="84" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="77"/>
+    <row r="20" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="97"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="80"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="46"/>
@@ -2999,20 +3008,20 @@
       <c r="R20" s="12"/>
       <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="1:19" ht="96" customHeight="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="77"/>
+    <row r="21" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="46"/>
@@ -3025,16 +3034,16 @@
       <c r="R21" s="12"/>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" ht="72.95" customHeight="1">
-      <c r="A22" s="78"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="97" t="s">
+    <row r="22" spans="1:19" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="97"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
@@ -3049,15 +3058,15 @@
       <c r="R22" s="12"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="1:19" ht="48">
-      <c r="A23" s="78"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="97"/>
+    <row r="23" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="97"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3073,20 +3082,20 @@
       <c r="R23" s="12"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="1:19" ht="45">
-      <c r="A24" s="78"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="97"/>
+    <row r="24" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="97"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="46"/>
@@ -3099,20 +3108,20 @@
       <c r="R24" s="12"/>
       <c r="S24" s="13"/>
     </row>
-    <row r="25" spans="1:19" ht="71.099999999999994" customHeight="1">
-      <c r="A25" s="78"/>
-      <c r="B25" s="77"/>
+    <row r="25" spans="1:19" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="97"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="46"/>
@@ -3125,16 +3134,16 @@
       <c r="R25" s="12"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="1:19" ht="42.95" customHeight="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="98" t="s">
+    <row r="26" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="97"/>
+      <c r="B26" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="3"/>
@@ -3149,16 +3158,16 @@
       <c r="R26" s="12"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:19" ht="47.1" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="98"/>
+    <row r="27" spans="1:19" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="97"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="80"/>
+        <v>68</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="74"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="4"/>
@@ -3173,20 +3182,20 @@
       <c r="R27" s="12"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="1:19" ht="66.95" customHeight="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="98"/>
+    <row r="28" spans="1:19" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="97"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="80"/>
+        <v>69</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="74"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="46"/>
@@ -3199,24 +3208,24 @@
       <c r="R28" s="12"/>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="1:19" ht="176.1" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="94" t="s">
+    <row r="29" spans="1:19" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="97"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="G29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="9" t="s">
+      <c r="H29" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="46"/>
@@ -3229,24 +3238,24 @@
       <c r="R29" s="12"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="1:19" ht="128.1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="94"/>
+    <row r="30" spans="1:19" ht="136" x14ac:dyDescent="0.2">
+      <c r="A30" s="97"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="G30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="H30" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="48"/>
@@ -3259,21 +3268,21 @@
       <c r="R30" s="12"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="1:19" ht="87" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="94"/>
+    <row r="31" spans="1:19" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="G31" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="44"/>
@@ -3287,18 +3296,18 @@
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="1:19" ht="105.95" customHeight="1">
-      <c r="A32" s="78"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="94"/>
+    <row r="32" spans="1:19" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="97"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="4"/>
@@ -3313,15 +3322,15 @@
       <c r="R32" s="12"/>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="1:19" ht="171.95" customHeight="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="94"/>
+    <row r="33" spans="1:19" ht="172" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="97"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3337,18 +3346,18 @@
       <c r="R33" s="12"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="1:19" ht="74.099999999999994" customHeight="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="94"/>
+    <row r="34" spans="1:19" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="97"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="4"/>
@@ -3363,25 +3372,25 @@
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="1:19" ht="75" customHeight="1">
-      <c r="A35" s="78"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="94"/>
+    <row r="35" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="97"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="G35" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J35" s="49"/>
       <c r="K35" s="37"/>
@@ -3393,16 +3402,16 @@
       <c r="R35" s="12"/>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="1:19" ht="57" customHeight="1">
-      <c r="A36" s="78"/>
-      <c r="B36" s="98"/>
+    <row r="36" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="97"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="80"/>
+        <v>99</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="74"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="3"/>
@@ -3417,16 +3426,16 @@
       <c r="R36" s="12"/>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="1:19" ht="68.099999999999994" customHeight="1" thickBot="1">
-      <c r="A37" s="79"/>
-      <c r="B37" s="99"/>
+    <row r="37" spans="1:19" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="98"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="95"/>
+        <v>101</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="102"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="24"/>
@@ -3441,7 +3450,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="1:19" s="5" customFormat="1" ht="17.100000000000001" thickTop="1">
+    <row r="38" spans="1:19" s="5" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="7"/>
@@ -3452,27 +3461,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:E3"/>
@@ -3489,6 +3477,27 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="D37:E37"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3500,61 +3509,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="90"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="122"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="104.1" customHeight="1" thickBot="1">
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+        <v>150</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -3571,108 +3580,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A4" s="115"/>
+    <row r="4" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
       <c r="B4" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
+        <v>153</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
       <c r="H4" s="62"/>
     </row>
-    <row r="5" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A5" s="115"/>
+    <row r="5" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
+        <v>154</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
       <c r="H5" s="62"/>
     </row>
-    <row r="6" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
       <c r="B6" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+        <v>155</v>
+      </c>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="1:8" ht="167.1" customHeight="1" thickBot="1">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:8" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
       <c r="B7" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
+        <v>156</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="8" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:E2"/>
@@ -3694,76 +3703,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="87" customHeight="1">
-      <c r="A3" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:8" ht="87" customHeight="1">
-      <c r="A4" s="115"/>
+    <row r="4" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
       <c r="B4" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
+        <v>104</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
       <c r="H4" s="62"/>
     </row>
-    <row r="5" spans="1:8" ht="87" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="107" t="s">
-        <v>107</v>
+    <row r="5" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="114" t="s">
+        <v>105</v>
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="71"/>
@@ -3772,50 +3781,50 @@
       <c r="G5" s="61"/>
       <c r="H5" s="62"/>
     </row>
-    <row r="6" spans="1:8" ht="87" customHeight="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="108"/>
+    <row r="6" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
+        <v>106</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="1:8" ht="87" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="108"/>
+    <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
+        <v>107</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
       <c r="H7" s="62"/>
     </row>
-    <row r="8" spans="1:8" ht="87" customHeight="1" thickBot="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="109"/>
+    <row r="8" spans="1:8" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
       <c r="H8" s="57"/>
     </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" thickTop="1"/>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1"/>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1"/>
-    <row r="13" spans="1:8" ht="18.95" customHeight="1"/>
-    <row r="14" spans="1:8" ht="18.95" customHeight="1"/>
-    <row r="15" spans="1:8" ht="18.95" customHeight="1"/>
-    <row r="16" spans="1:8" ht="18.95" customHeight="1"/>
-    <row r="17" ht="18.95" customHeight="1"/>
+    <row r="9" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="F1:F2"/>
@@ -3838,59 +3847,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="90"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="122"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="104.1" customHeight="1" thickBot="1">
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+        <v>109</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -3907,61 +3916,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="90"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="122"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="104.1" customHeight="1" thickBot="1">
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+        <v>110</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -3978,61 +3987,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="90"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="122"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="104.1" customHeight="1" thickBot="1">
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="B3" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -4049,121 +4058,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="83.1" customHeight="1" thickBot="1">
-      <c r="A3" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
-    <row r="6" spans="1:8" ht="17.100000000000001" thickBot="1"/>
-    <row r="7" spans="1:8" ht="17.100000000000001" thickTop="1">
-      <c r="A7" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="89" t="s">
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="90"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="122"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:8" ht="171.95" customHeight="1">
-      <c r="A9" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:8" ht="172" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="2"/>
       <c r="G9" s="53"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="171.95" customHeight="1" thickBot="1">
-      <c r="A10" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+    <row r="10" spans="1:8" ht="172" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="31"/>
       <c r="G10" s="54"/>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="11" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
@@ -4173,11 +4187,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4187,191 +4196,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A4" s="115"/>
+    <row r="4" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
       <c r="B4" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
+        <v>121</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
       <c r="H4" s="62"/>
     </row>
-    <row r="5" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A5" s="115"/>
+    <row r="5" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
+        <v>123</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
       <c r="H5" s="62"/>
     </row>
-    <row r="6" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
       <c r="B6" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+        <v>125</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="1:8" ht="167.1" customHeight="1">
-      <c r="A7" s="115"/>
+    <row r="7" spans="1:8" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
       <c r="B7" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
+        <v>127</v>
+      </c>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
       <c r="H7" s="62"/>
     </row>
-    <row r="8" spans="1:8" ht="167.1" customHeight="1" thickBot="1">
-      <c r="A8" s="116"/>
+    <row r="8" spans="1:8" ht="167" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
       <c r="B8" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
       <c r="H8" s="57"/>
     </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" thickTop="1"/>
-    <row r="11" spans="1:8" ht="17.100000000000001" thickBot="1"/>
-    <row r="12" spans="1:8" ht="17.100000000000001" thickTop="1">
-      <c r="A12" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="89" t="s">
+    <row r="9" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="127"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="90"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="122"/>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" spans="1:8" ht="87.95" customHeight="1">
-      <c r="A14" s="133" t="s">
-        <v>127</v>
+      <c r="H13" s="88"/>
+    </row>
+    <row r="14" spans="1:8" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="134" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+        <v>130</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="2"/>
       <c r="G14" s="53"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="87.95" customHeight="1" thickBot="1">
-      <c r="A15" s="134"/>
+    <row r="15" spans="1:8" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
       <c r="B15" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+        <v>131</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="31"/>
       <c r="G15" s="54"/>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="16" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A3:A8"/>
@@ -4380,11 +4389,11 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4394,119 +4403,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
-      <selection activeCell="A7" sqref="A7:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="83.1" customHeight="1" thickBot="1">
-      <c r="A3" s="131" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
-    <row r="6" spans="1:8" ht="17.100000000000001" thickBot="1"/>
-    <row r="7" spans="1:8" ht="17.100000000000001" thickTop="1">
-      <c r="A7" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="89" t="s">
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="92" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="90"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="122"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:8" ht="65.099999999999994" customHeight="1">
-      <c r="A9" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="2"/>
       <c r="G9" s="53"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="65.099999999999994" customHeight="1" thickBot="1">
-      <c r="A10" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+    <row r="10" spans="1:8" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="31"/>
       <c r="G10" s="54"/>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="11" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C9:E9"/>
@@ -4532,175 +4541,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="4" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="83.1" customHeight="1" thickBot="1">
-      <c r="A3" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" thickTop="1"/>
-    <row r="6" spans="1:8" ht="17.100000000000001" thickBot="1"/>
-    <row r="7" spans="1:8" ht="17.100000000000001" thickTop="1">
-      <c r="A7" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="89" t="s">
+    <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:8" ht="137.1" customHeight="1">
-      <c r="A9" s="141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="137"/>
+      <c r="C9" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="137.1" customHeight="1">
-      <c r="A10" s="141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
+    <row r="10" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="137"/>
+      <c r="C10" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="137.1" customHeight="1">
-      <c r="A11" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
+    <row r="11" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="137.1" customHeight="1">
-      <c r="A12" s="141" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+    <row r="12" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="140" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="137.1" customHeight="1" thickBot="1">
-      <c r="A13" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+    <row r="13" spans="1:8" ht="137" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" thickTop="1"/>
+    <row r="14" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C12:E12"/>
@@ -4709,6 +4706,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
